--- a/Chapter-12_Excel/example.xlsx
+++ b/Chapter-12_Excel/example.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aline\Desktop\Vandeilson_UNICSUL\git_repositorio\python_automate_boring_stuff_exercises\Chapter-12_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{5BB304E4-7158-46AC-ACB0-815763D7B4BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC2F38E-2B67-4C16-9086-DB619F38F13E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Apples</t>
   </si>
@@ -53,14 +55,11 @@
   <si>
     <t>Strawberries</t>
   </si>
-  <si>
-    <t>04/05/2015  13:34:02 PM</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,7 +91,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,22 +407,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
+      <c r="A1" s="1">
+        <v>42128.565300925926</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -499,4 +498,28 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39610322-0789-4AFA-9B4C-C4DC8AACE228}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B3D4EC-05A9-4217-A2DA-A83EC614EDD6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>